--- a/WhitePack_Excel_READY_v8.xlsx
+++ b/WhitePack_Excel_READY_v8.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\WhitePack_v8_FINAL_ALL_FEATURES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\whitepack_privatecatalogue-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F488C7-CCB9-4218-94AA-CC1CB413BF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13C16A9-4076-4803-A8F3-4BB8F47C1BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="121">
   <si>
     <t>SKU</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Paper</t>
   </si>
   <si>
-    <t>https://i.imgur.com/QZ6B9qP.jpg</t>
-  </si>
-  <si>
     <t>SKU-2</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>Nylon</t>
   </si>
   <si>
-    <t>https://i.imgur.com/8KQbF7G.jpg</t>
-  </si>
-  <si>
     <t>Client_Name</t>
   </si>
   <si>
@@ -100,19 +94,461 @@
   </si>
   <si>
     <t>sku-2</t>
+  </si>
+  <si>
+    <t>https://www.globepackaging.co.uk/images/Coffee%20cups%20hot%20drinks%2012oz%20globe%20packaging.jpg</t>
+  </si>
+  <si>
+    <t>https://baytkon.com/cdn/shop/files/IMG-8780.jpg?v=1754994406&amp;width=823</t>
+  </si>
+  <si>
+    <t>https://klean4you.com.cy/wp-content/uploads/2025/01/1-brown-interfold.jpg</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSWGypYsqJnC1nuDZCEG9Bk2Fxi-9dUZC4ciQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://cdn11.bigcommerce.com/s-ovkxniftx6/images/stencil/1280x1280/products/535/5947/Somoplast-825-Black-2comp-Microwavable-Container-1000cc-Just-Base-a-pack-of-260_3901__21566.1705759403.jpg?c=1</t>
+  </si>
+  <si>
+    <t>https://superdokan.com/cdn/shop/files/ScreenShot2024-04-23at4.28.08PM.png?v=1713878903</t>
+  </si>
+  <si>
+    <t>https://superdokan.com/cdn/shop/files/iLqyGP1_1024x_f55ba10b-a0ce-47cc-a580-018927ebef46.webp?v=1723721711</t>
+  </si>
+  <si>
+    <t>https://foodpackagingdirect.co.uk/cdn/shop/files/IMG-9611.jpg?v=1717099792&amp;width=1946</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTqxZxA7mSMhcpB3MjiTwKOZt-l0wYj1KcpOg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQyMvp6bT_raxnD_xcYsP0qOYDMHZUe9bTCqA&amp;s</t>
+  </si>
+  <si>
+    <t>https://cdn11.bigcommerce.com/s-ovkxniftx6/images/stencil/1280x1280/products/840/5979/Somoplast-918-Clear-Hinged-Rect-Container-600cc-Deep-a-pack-of-600_3868__88314.1705759491.jpg?c=1</t>
+  </si>
+  <si>
+    <t>https://freshpacksolutions.co.uk/cdn/shop/files/2comp_base_1_-Photoroom.jpg?v=1710688106&amp;width=1946</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSI5oYtthMyI3WwSkRaovDTDHs1E2YT1aMYPQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTp2Xbb6AEE_rYIwjWgLOiYmHJ8h4nDHI9XCg&amp;s</t>
+  </si>
+  <si>
+    <t>https://polymeruk.com/cdn/shop/products/DP01S.jpg?v=1644416513</t>
+  </si>
+  <si>
+    <t>https://wasilonline.com/wp-content/uploads/2024/07/HO0106.webp</t>
+  </si>
+  <si>
+    <t>https://lollicupstore.com/cdn/shop/products/fp-br16-pet_17_1.png?v=1699322852</t>
+  </si>
+  <si>
+    <t>https://www.topcateringsupplies.co.uk/cdn/shop/files/Somoplast-823-Black-Microwavable-Container-1000cc-Just-Base-a-pack-of-260_4328__04522.jpg?v=1739226895</t>
+  </si>
+  <si>
+    <t>https://coop.siblinelb.com/uploads/media/2024/806.png</t>
+  </si>
+  <si>
+    <t>https://clickomart.s3-eu-central-1.amazonaws.com/files/1677852091998_image.png</t>
+  </si>
+  <si>
+    <t>https://clickomart.imgix.net//files/1651063150451_image.png?auto=enhance,format&amp;sharp=30&amp;trim=auto&amp;trim-sd=2}</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQvBslk79kZM5z_JnH1vkefT52CC2oUb7F7_A&amp;s</t>
+  </si>
+  <si>
+    <t>https://cpeurolimited-static.symphonycommerce.io/images/2022/05/contain/512x512/8e081026cfe7e102318d035b44a7c90f.jpg</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS7Z3oOL318V7L7CUyp6KYmbyuXx1EJE5XjMQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://freshpacksolutions.co.uk/cdn/shop/files/750cc_rect_05386221-244b-4dea-aefb-3fab82577589.webp?v=1707085602</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61f5sVDESqL._AC_SL1440_.jpg</t>
+  </si>
+  <si>
+    <t>https://i5.walmartimages.com/asr/5104308a-f53e-4ba3-8b2e-cbf64a47bd5c.1f0c511a4a2f5d074234e2d7f597e4d0.jpeg</t>
+  </si>
+  <si>
+    <t>https://selenaplast.com.tr/wp-content/uploads/2024/05/%D8%AE%D8%B1%DB%8C%D8%AF-%D9%86%D8%A7%DB%8C%D9%84%D9%88%D9%86-%D8%AF%D8%B3%D8%AA%D9%87-%D8%AF%D8%A7%D8%B1-%D8%B9%D9%85%D8%AF%D9%87.jpg</t>
+  </si>
+  <si>
+    <t>https://paperboss.co.za/wp-content/uploads/2021/07/PLASTIC-SHOPPING-BAGS-WHITE.jpg</t>
+  </si>
+  <si>
+    <t>https://hotpack.qa/cdn/shop/files/Medium_Plastic_Carry_Bag.jpg?v=1722938413</t>
+  </si>
+  <si>
+    <t>https://5.imimg.com/data5/SELLER/Default/2023/6/314026339/NB/QS/ZG/40126817/transparent-plastic-bags-500x500.png</t>
+  </si>
+  <si>
+    <t>https://cdn11.bigcommerce.com/s-9376c/products/9585/images/9493/174172-174173-174174-174175_800x600__23__55682.1487619021.500.750.jpg?c=3</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQADnPh4Hube7KU3l_ZIV_sywIf1eu93owV_g&amp;s</t>
+  </si>
+  <si>
+    <t>https://clickomart.imgix.net//files/1731075077905_image.png?auto=enhance,format&amp;sharp=30&amp;trim=auto&amp;trim-sd=2}</t>
+  </si>
+  <si>
+    <t>https://karoutonlinelb.com/cdn/shop/products/Untitled-1_bcadf996-b3a4-4034-a680-424c6621bf55.jpg?v=1667765832</t>
+  </si>
+  <si>
+    <t>https://www.zizette.com/cdn/shop/products/30003_01__41904.1654595637_608x608.jpg?v=1656593869</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRaayIDCH-Uai7xW0o_jPpLxK2hDgydY-fxeQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTBe11y698V-s74FlboKI5rJZoJi3xDZIAu0g&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTLuLZZ9T-ADbMKKSCQGJR92nRpG2VspMaCrQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcStbP22SjWREsZErDBYzGUWKwntRHFAW6t5Kg&amp;s</t>
+  </si>
+  <si>
+    <t>https://hq2.recyclist.co/wp-content/uploads/sites/2/2015/02/aluminum-foil-300x300.jpg</t>
+  </si>
+  <si>
+    <t>https://images.jdmagicbox.com/v2/comp/def_content/ncat_id/aluminium-foil-container-o5ycsco-250.jpg</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRRUQ-JiYm_aRXMf73tVL-jCN5dYJnxnk0dMg&amp;s</t>
+  </si>
+  <si>
+    <t>https://kingpack.co.za/wp-content/uploads/2022/01/Kraft-French-Fry-Chip-Box-BDK008.jpg</t>
+  </si>
+  <si>
+    <t>https://s.alicdn.com/@sc04/kf/Hf0fa70f69d0b4073b6994cc76b25e7fef/Factory-Cone-Boxes-Custom-Paper-Holder-Disposable-Waffle-Packaging-Box-Cardboard-Paper-Cone-Box-for-French-Fry.jpg</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSie-AoJNC0F94ttrYRDaYEWoZDk4yilm7IsA&amp;s</t>
+  </si>
+  <si>
+    <t>https://cms.gpilebanon.com/storage/data/products_600_600/28.jpg?v=1360</t>
+  </si>
+  <si>
+    <t>Somoplast [826] Black Microwavable Container 750cc (260 Pcs)</t>
+  </si>
+  <si>
+    <t>Somoplast 825 Black 2comp Microwavable Container 1000cc (260 Pcs)</t>
+  </si>
+  <si>
+    <t>Somoplast 100 Coffee Plastic Cups</t>
+  </si>
+  <si>
+    <t>Somoplast Picnic Plastic Cups 50pcs (250cc)</t>
+  </si>
+  <si>
+    <t>Somoplast Clear Hinged Square Container 150CC</t>
+  </si>
+  <si>
+    <t>Somoplast Clear Hinged Square Container 250</t>
+  </si>
+  <si>
+    <t>Somoplast Clear Hinged Square Container 350CC</t>
+  </si>
+  <si>
+    <t>Somoplast 824 Black 3comp Microwave Container 1000cc -260 Pcs</t>
+  </si>
+  <si>
+    <t>Somoplast 823 Black Microwavable Container 1000cc (260 Pcs)</t>
+  </si>
+  <si>
+    <t>Somoplast 918 Clear Hinged 600cc Rect. Container (600 Pcs)</t>
+  </si>
+  <si>
+    <t>Somoplast [821] 1250cc 2 Compartment Black Microwaveable</t>
+  </si>
+  <si>
+    <t>Somoplast 903 Clear Hinged Domed Square Container [2000cc] (180 Pcs)</t>
+  </si>
+  <si>
+    <t>Somoplast Plastic Clear Sauce Pot</t>
+  </si>
+  <si>
+    <t>Somo Plast Paper Coffee Cups 2.5OZ</t>
+  </si>
+  <si>
+    <t>MICROWWAVABLE CONTAINER BLACK SOMOPLAST 700CC</t>
+  </si>
+  <si>
+    <t>ECO CUP 100 PLASTIC CUP(786)</t>
+  </si>
+  <si>
+    <t>Plastic Transparent Cups 350 cc x 50's</t>
+  </si>
+  <si>
+    <t>Somo Plastic Forks 100's</t>
+  </si>
+  <si>
+    <t>Somoplast White Plastic Spoons ×50</t>
+  </si>
+  <si>
+    <t>clear LID for frape cups SOMOPLAST 400cc-500cc-660cc x 50pcs</t>
+  </si>
+  <si>
+    <t>Somoplast Lids for Black Bowl 736 500cc (a pack of 300)</t>
+  </si>
+  <si>
+    <t>Somoplast [969] 1500cc Rectangular Hinged</t>
+  </si>
+  <si>
+    <t>Cellophane Bags for Packaging, Clothing, and Gifts</t>
+  </si>
+  <si>
+    <t> Transparent Plastic Bag OPP Food Bag Small Self-adhesive Bag Packaging Food Bag Cellophane Bag for Bakery Candy Chocolate Lollipop Cookies</t>
+  </si>
+  <si>
+    <t>T-shirt plastic bag [nylon carry bag]</t>
+  </si>
+  <si>
+    <t>NYLON SHOPPING BAGS (WHITE)</t>
+  </si>
+  <si>
+    <t>Medium Plastic Carry Bag</t>
+  </si>
+  <si>
+    <t>TRANSPARENT PLASTIC BAGS FOR PACKAGING</t>
+  </si>
+  <si>
+    <t>GARBAGE BAGS PLASTIC</t>
+  </si>
+  <si>
+    <t>WEEKEND TRASH BAGS LARGE</t>
+  </si>
+  <si>
+    <t>Weekend Trash Bag With Tie Medium</t>
+  </si>
+  <si>
+    <t>Roll Garbage Bags 60 x 55 cm - Black</t>
+  </si>
+  <si>
+    <t>WEEKEND TRASH BAGS SMALL</t>
+  </si>
+  <si>
+    <t>INTERFOLD OFF-WHITE</t>
+  </si>
+  <si>
+    <t>KING TISSUES 200</t>
+  </si>
+  <si>
+    <t>KING TISSUES 500</t>
+  </si>
+  <si>
+    <t>SOMOPLAST PLASTIC PLATE 7INCH</t>
+  </si>
+  <si>
+    <t>SOMOPLAST PLASTIC PLATE 9INCH</t>
+  </si>
+  <si>
+    <t>SOMOPLAST PLASTC PLATE 10INCH</t>
+  </si>
+  <si>
+    <t>CITY PLAST APRON *100</t>
+  </si>
+  <si>
+    <t>ALUMINIUM FOIL 1200G</t>
+  </si>
+  <si>
+    <t>ALUMINIUM FOIL 1000G</t>
+  </si>
+  <si>
+    <t>ALUMINIUM FOIL 750G</t>
+  </si>
+  <si>
+    <t>ALUMINIUM POT</t>
+  </si>
+  <si>
+    <t>KRAFT FRIES BOX SMALL</t>
+  </si>
+  <si>
+    <t>KRAFT FRIES BOX MEDIM</t>
+  </si>
+  <si>
+    <t>KRAFT BOX</t>
+  </si>
+  <si>
+    <t>KRAFT BURGER BOX</t>
+  </si>
+  <si>
+    <t>CLING FILM</t>
+  </si>
+  <si>
+    <t>plastic containers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF111111"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF2E2A39"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF11151C"/>
+      <name val="Comic Sans MS"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF121212"/>
+      <name val="Neue Haas Unica Pro"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF121212"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202435"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF37424A"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF151515"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF2E2F32"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0F172A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF415161"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF00112E"/>
+      <name val="Plus Jakarta Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF415161"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF2B2935"/>
+      <name val="Exo"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF1A1A1A"/>
+      <name val="Roboto Condensed"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,7 +559,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -131,14 +567,106 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE3E0E0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -439,13 +967,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="225.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,7 +1000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -481,31 +1016,467 @@
       <c r="E2">
         <v>1.5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="102">
+      <c r="B4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="114.75">
+      <c r="B5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="63.75">
+      <c r="B6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="76.5">
+      <c r="B7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="76.5">
+      <c r="B8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="76.5">
+      <c r="B9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="76.5">
+      <c r="B10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="114.75">
+      <c r="B11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="102">
+      <c r="B12" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="114.75">
+      <c r="B13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="148.5">
+      <c r="B14" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="127.5">
+      <c r="B15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="4"/>
+      <c r="F16" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="76.5">
+      <c r="B17" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="76.5">
+      <c r="B18" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="4"/>
+      <c r="F19" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="114.75">
+      <c r="B20" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="51">
+      <c r="B21" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="76.5">
+      <c r="B22" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="51">
+      <c r="B23" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="63.75">
+      <c r="B24" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="114.75">
+      <c r="B25" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="89.25">
+      <c r="B26" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="99">
+      <c r="B27" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="102">
+      <c r="B29" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="293.25">
+      <c r="B30" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="76.5">
+      <c r="B31" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="63.75">
+      <c r="B32" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="51">
+      <c r="B33" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="22"/>
+      <c r="F34" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="76.5">
+      <c r="B35" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="39" thickBot="1">
+      <c r="B36" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="51">
+      <c r="B37" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="2:6" ht="63.75">
+      <c r="B38" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="64.5" thickBot="1">
+      <c r="B39" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="51">
+      <c r="B40" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="38.25">
+      <c r="B41" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="F57" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="F58" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="F59" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{57E91B00-40EF-4B07-9FF0-B9F290F98793}"/>
+    <hyperlink ref="F15" r:id="rId2" xr:uid="{C0B53A16-1E82-4065-BF25-82CF3411106D}"/>
+    <hyperlink ref="F21" r:id="rId3" xr:uid="{45C412C1-EABF-41EE-B4D6-1760F0DE2DFB}"/>
+    <hyperlink ref="B21" r:id="rId4" display="https://coop.siblinelb.com/products/details/eco-cup-100-plastic-cup786" xr:uid="{4BA2436F-454A-4E8D-992F-44A6715062C5}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -518,31 +1489,31 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>70333029</v>
@@ -557,29 +1528,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -588,23 +1559,23 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>70333029</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>70333029</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>0.5</v>

--- a/WhitePack_Excel_READY_v8.xlsx
+++ b/WhitePack_Excel_READY_v8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\whitepack_privatecatalogue-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13C16A9-4076-4803-A8F3-4BB8F47C1BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FDF08E-79C3-4A1D-B94F-A9652A3667C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="121">
   <si>
     <t>SKU</t>
   </si>
@@ -590,12 +590,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -969,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1036,437 +1033,434 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="102">
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:6" ht="25.5">
+      <c r="B4" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D4" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="114.75">
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:6" ht="25.5">
+      <c r="B5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="63.75">
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:6">
+      <c r="B6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="76.5">
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="1:6">
+      <c r="B7" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="76.5">
-      <c r="B8" s="7" t="s">
+    <row r="8" spans="1:6" ht="25.5">
+      <c r="B8" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="76.5">
-      <c r="B9" s="7" t="s">
+    <row r="9" spans="1:6" ht="25.5">
+      <c r="B9" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="76.5">
-      <c r="B10" s="7" t="s">
+    <row r="10" spans="1:6" ht="25.5">
+      <c r="B10" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="114.75">
-      <c r="B11" s="5" t="s">
+    <row r="11" spans="1:6" ht="25.5">
+      <c r="B11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="102">
-      <c r="B12" s="5" t="s">
+    <row r="12" spans="1:6" ht="25.5">
+      <c r="B12" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="114.75">
-      <c r="B13" s="5" t="s">
+    <row r="13" spans="1:6" ht="25.5">
+      <c r="B13" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="148.5">
-      <c r="B14" s="8" t="s">
+    <row r="14" spans="1:6" ht="33">
+      <c r="B14" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="127.5">
-      <c r="B15" s="5" t="s">
+    <row r="15" spans="1:6" ht="25.5">
+      <c r="B15" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="B16" s="4"/>
-      <c r="F16" s="2" t="s">
+      <c r="F16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="76.5">
-      <c r="B17" s="9" t="s">
+    <row r="17" spans="2:6">
+      <c r="B17" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="76.5">
-      <c r="B18" s="10" t="s">
+    <row r="18" spans="2:6">
+      <c r="B18" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="4"/>
-      <c r="F19" s="2" t="s">
+      <c r="F19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="114.75">
-      <c r="B20" s="11" t="s">
+    <row r="20" spans="2:6" ht="25.5">
+      <c r="B20" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="51">
-      <c r="B21" s="12" t="s">
+    <row r="21" spans="2:6">
+      <c r="B21" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="76.5">
-      <c r="B22" s="13" t="s">
+    <row r="22" spans="2:6">
+      <c r="B22" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="51">
-      <c r="B23" s="13" t="s">
+    <row r="23" spans="2:6">
+      <c r="B23" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="63.75">
-      <c r="B24" s="14" t="s">
+    <row r="24" spans="2:6">
+      <c r="B24" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="114.75">
-      <c r="B25" s="15" t="s">
+    <row r="25" spans="2:6" ht="25.5">
+      <c r="B25" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="89.25">
-      <c r="B26" s="5" t="s">
+    <row r="26" spans="2:6" ht="25.5">
+      <c r="B26" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="99">
-      <c r="B27" s="8" t="s">
+    <row r="27" spans="2:6" ht="33">
+      <c r="B27" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="102">
-      <c r="B29" s="17" t="s">
+    <row r="29" spans="2:6" ht="25.5">
+      <c r="B29" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="293.25">
-      <c r="B30" s="18" t="s">
+    <row r="30" spans="2:6" ht="51">
+      <c r="B30" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="76.5">
-      <c r="B31" s="19" t="s">
+    <row r="31" spans="2:6">
+      <c r="B31" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="63.75">
-      <c r="B32" s="20" t="s">
+    <row r="32" spans="2:6">
+      <c r="B32" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="51">
-      <c r="B33" s="21" t="s">
+    <row r="33" spans="2:6">
+      <c r="B33" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="22"/>
-      <c r="F34" s="2" t="s">
+      <c r="B34" s="19"/>
+      <c r="F34" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="76.5">
-      <c r="B35" s="23" t="s">
+    <row r="35" spans="2:6">
+      <c r="B35" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="39" thickBot="1">
-      <c r="B36" s="24" t="s">
+    <row r="36" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B36" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="51">
-      <c r="B37" s="25" t="s">
+    <row r="37" spans="2:6">
+      <c r="B37" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="2:6" ht="63.75">
-      <c r="B38" s="13" t="s">
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="64.5" thickBot="1">
-      <c r="B39" s="26" t="s">
+    <row r="39" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B39" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="51">
-      <c r="B40" s="25" t="s">
+    <row r="40" spans="2:6">
+      <c r="B40" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="38.25">
-      <c r="B41" s="27" t="s">
+    <row r="41" spans="2:6">
+      <c r="B41" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F49" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F51" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="28" t="s">
+      <c r="B52" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F52" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F53" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="28" t="s">
+      <c r="B54" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F54" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="28" t="s">
+      <c r="B55" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="F55" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="28" t="s">
+      <c r="B56" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F56" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:6">
-      <c r="F57" s="2" t="s">
+      <c r="F57" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="58" spans="2:6">
-      <c r="F58" s="2" t="s">
+      <c r="F58" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="59" spans="2:6">
-      <c r="F59" s="2" t="s">
+      <c r="F59" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1526,18 +1520,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="195" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1548,7 +1543,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1559,7 +1554,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>70333029</v>
       </c>
@@ -1569,8 +1564,11 @@
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>70333029</v>
       </c>
@@ -1579,6 +1577,24 @@
       </c>
       <c r="C4">
         <v>0.5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="D7" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/WhitePack_Excel_READY_v8.xlsx
+++ b/WhitePack_Excel_READY_v8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\whitepack_privatecatalogue-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FDF08E-79C3-4A1D-B94F-A9652A3667C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C311968A-362E-453A-96DC-AAC35C8EC5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="124">
   <si>
     <t>SKU</t>
   </si>
@@ -385,13 +385,22 @@
   </si>
   <si>
     <t>plastic containers</t>
+  </si>
+  <si>
+    <t>sku-3</t>
+  </si>
+  <si>
+    <t>sku-4</t>
+  </si>
+  <si>
+    <t>sku-5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,6 +558,12 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1523,7 +1538,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1583,21 +1598,49 @@
       </c>
     </row>
     <row r="5" spans="1:4">
+      <c r="A5">
+        <v>70333029</v>
+      </c>
+      <c r="B5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4">
+      <c r="A6">
+        <v>70333029</v>
+      </c>
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6">
+        <v>2.5</v>
+      </c>
       <c r="D6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4">
+      <c r="A7">
+        <v>70333029</v>
+      </c>
+      <c r="B7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7">
+        <v>1.5</v>
+      </c>
       <c r="D7" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>